--- a/The_Book_of_Answers_Full.xlsx
+++ b/The_Book_of_Answers_Full.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JianweiCui\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JianweiCui\Documents\GitHub\The_book_of_answers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB720487-B2F1-44F6-B359-DBE5B4DF1A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A603C14E-2BE4-4B55-A8CA-3281E829AC0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -761,9 +761,6 @@
     <t>PUT YOUR FEELINGS IN THE RIGHT PLACE</t>
   </si>
   <si>
-    <t>IDENTIFY WHAT MATTERSABOUT IT</t>
-  </si>
-  <si>
     <t>HOW THINGS TURN OUT WILL DEPEND ON YOU</t>
   </si>
   <si>
@@ -907,6 +904,10 @@
   </si>
   <si>
     <t>REVEAL YOUR THOUGHTS TO A TRUSTED CONFIDANTE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDENTIFY WHAT MATTERSA BOUT it</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1284,8 +1285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C351"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
+      <selection activeCell="D283" sqref="D283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1303,7 +1304,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -4302,7 +4303,7 @@
         <v>221</v>
       </c>
       <c r="C251" t="str">
-        <f t="shared" ref="C251:C283" si="7">_xlfn.TRANSLATE(B251, "en", "zh-chs")</f>
+        <f t="shared" ref="C251:C282" si="7">_xlfn.TRANSLATE(B251, "en", "zh-chs")</f>
         <v>开始冒险</v>
       </c>
     </row>
@@ -4683,11 +4684,11 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>242</v>
+        <v>290</v>
       </c>
       <c r="C283" t="str">
-        <f t="shared" si="7"/>
-        <v>确定 IT 的重要内容</v>
+        <f>_xlfn.TRANSLATE(B283, "en", "zh-chs")</f>
+        <v>确定重要事项</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.15">
@@ -4695,7 +4696,7 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C284" t="str">
         <f>_xlfn.TRANSLATE(B284, "en", "zh-chs")</f>
@@ -4731,7 +4732,7 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C287" t="str">
         <f t="shared" si="8"/>
@@ -4743,7 +4744,7 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C288" t="str">
         <f t="shared" si="8"/>
@@ -4767,7 +4768,7 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C290" t="str">
         <f t="shared" si="8"/>
@@ -4803,7 +4804,7 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C293" t="str">
         <f t="shared" si="8"/>
@@ -4815,7 +4816,7 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C294" t="str">
         <f t="shared" si="8"/>
@@ -4827,7 +4828,7 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C295" t="str">
         <f t="shared" si="8"/>
@@ -4863,7 +4864,7 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C298" t="str">
         <f t="shared" si="8"/>
@@ -4935,7 +4936,7 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C304" t="str">
         <f t="shared" si="8"/>
@@ -4947,7 +4948,7 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C305" t="str">
         <f t="shared" si="8"/>
@@ -4971,7 +4972,7 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C307" t="str">
         <f t="shared" si="8"/>
@@ -4983,7 +4984,7 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C308" t="str">
         <f t="shared" si="8"/>
@@ -5007,7 +5008,7 @@
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C310" t="str">
         <f t="shared" si="8"/>
@@ -5019,7 +5020,7 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C311" t="str">
         <f t="shared" si="8"/>
@@ -5031,7 +5032,7 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C312" t="str">
         <f t="shared" si="8"/>
@@ -5043,7 +5044,7 @@
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C313" t="str">
         <f t="shared" si="8"/>
@@ -5055,7 +5056,7 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C314" t="str">
         <f t="shared" si="8"/>
@@ -5067,7 +5068,7 @@
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C315" t="str">
         <f t="shared" si="8"/>
@@ -5079,7 +5080,7 @@
         <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C316" t="str">
         <f t="shared" si="8"/>
@@ -5091,7 +5092,7 @@
         <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C317" t="str">
         <f t="shared" si="8"/>
@@ -5103,7 +5104,7 @@
         <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C318" t="str">
         <f t="shared" si="8"/>
@@ -5115,7 +5116,7 @@
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C319" t="str">
         <f t="shared" si="8"/>
@@ -5175,7 +5176,7 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C324" t="str">
         <f t="shared" si="8"/>
@@ -5187,7 +5188,7 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C325" t="str">
         <f t="shared" si="8"/>
@@ -5199,7 +5200,7 @@
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C326" t="str">
         <f t="shared" si="8"/>
@@ -5211,7 +5212,7 @@
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C327" t="str">
         <f>_xlfn.TRANSLATE(B327, "en", "zh-chs")</f>
@@ -5223,7 +5224,7 @@
         <v>327</v>
       </c>
       <c r="B328" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C328" t="str">
         <f t="shared" ref="C328:C351" si="9">_xlfn.TRANSLATE(B328, "en", "zh-chs")</f>
@@ -5247,7 +5248,7 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C330" t="str">
         <f t="shared" si="9"/>
@@ -5259,7 +5260,7 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C331" t="str">
         <f t="shared" si="9"/>
@@ -5271,7 +5272,7 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C332" t="str">
         <f t="shared" si="9"/>
@@ -5295,7 +5296,7 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C334" t="str">
         <f t="shared" si="9"/>
@@ -5307,7 +5308,7 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C335" t="str">
         <f t="shared" si="9"/>
@@ -5319,7 +5320,7 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C336" t="str">
         <f t="shared" si="9"/>
@@ -5343,7 +5344,7 @@
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C338" t="str">
         <f t="shared" si="9"/>
@@ -5355,7 +5356,7 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C339" t="str">
         <f t="shared" si="9"/>
@@ -5367,7 +5368,7 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C340" t="str">
         <f t="shared" si="9"/>
@@ -5379,7 +5380,7 @@
         <v>340</v>
       </c>
       <c r="B341" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C341" t="str">
         <f t="shared" si="9"/>
@@ -5391,7 +5392,7 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C342" t="str">
         <f t="shared" si="9"/>
@@ -5403,7 +5404,7 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C343" t="str">
         <f t="shared" si="9"/>
@@ -5415,7 +5416,7 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C344" t="str">
         <f t="shared" si="9"/>
@@ -5427,7 +5428,7 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C345" t="str">
         <f t="shared" si="9"/>
@@ -5439,7 +5440,7 @@
         <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C346" t="str">
         <f t="shared" si="9"/>
@@ -5451,7 +5452,7 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C347" t="str">
         <f t="shared" si="9"/>
@@ -5463,7 +5464,7 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C348" t="str">
         <f t="shared" si="9"/>
@@ -5475,7 +5476,7 @@
         <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C349" t="str">
         <f t="shared" si="9"/>
@@ -5487,7 +5488,7 @@
         <v>349</v>
       </c>
       <c r="B350" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C350" t="str">
         <f t="shared" si="9"/>
@@ -5499,7 +5500,7 @@
         <v>350</v>
       </c>
       <c r="B351" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C351" t="str">
         <f t="shared" si="9"/>
